--- a/Obsidian Vault/Arquivos/Exels/Módulo_2/01 - Cálculos Percentuais.xlsx
+++ b/Obsidian Vault/Arquivos/Exels/Módulo_2/01 - Cálculos Percentuais.xlsx
@@ -7,7 +7,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD458D8-7B7A-441A-AC1F-642482905C9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B25483B-2097-43E8-B9C5-3999772611E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" activeTab="0"/>
   </bookViews>
@@ -172,28 +172,28 @@
     <xf fontId="1" applyFont="1" borderId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" horizontal="center"/>
     </xf>
+    <xf fontId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf fontId="2" applyFont="1" fillId="2" applyFill="1" borderId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf fontId="2" applyFont="1" fillId="3" applyFill="1" borderId="3" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf fontId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf xfId="2" quotePrefix="0" pivotButton="0" fontId="2" applyFont="1" fillId="2" applyFill="1" borderId="2" applyBorder="1" applyAlignment="1">
+    <xf xfId="3" quotePrefix="0" pivotButton="0" fontId="2" applyFont="1" fillId="2" applyFill="1" borderId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf xfId="3" quotePrefix="0" pivotButton="0" fontId="2" applyFont="1" fillId="3" applyFill="1" borderId="3" applyBorder="1" applyAlignment="1">
+    <xf xfId="4" quotePrefix="0" pivotButton="0" fontId="2" applyFont="1" fillId="3" applyFill="1" borderId="3" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf xfId="1" quotePrefix="0" pivotButton="0" fontId="1" applyFont="1" borderId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf xfId="4" quotePrefix="0" pivotButton="0" fontId="1" applyFont="1" applyAlignment="1">
+    <xf xfId="2" quotePrefix="0" pivotButton="0" fontId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
